--- a/raw_data/20200818_saline/20200818_Sensor1_Test_22.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_22.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC3CF89-BEA5-485F-8C30-D9E8B85E8ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>19086.996880</v>
+        <v>19086.996879999999</v>
       </c>
       <c r="B2" s="1">
-        <v>5.301944</v>
+        <v>5.3019439999999998</v>
       </c>
       <c r="C2" s="1">
-        <v>894.663000</v>
+        <v>894.66300000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.960000</v>
+        <v>-198.96</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>19097.115499</v>
@@ -496,647 +912,647 @@
         <v>5.304754</v>
       </c>
       <c r="H2" s="1">
-        <v>912.152000</v>
+        <v>912.15200000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.168000</v>
+        <v>-168.16800000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>19107.310037</v>
+        <v>19107.310036999999</v>
       </c>
       <c r="L2" s="1">
-        <v>5.307586</v>
+        <v>5.3075859999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>934.768000</v>
+        <v>934.76800000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-118.850000</v>
+        <v>-118.85</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>19117.134333</v>
+        <v>19117.134333000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.310315</v>
+        <v>5.3103150000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>941.300000</v>
+        <v>941.3</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.804000</v>
+        <v>-102.804</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>19127.396382</v>
+        <v>19127.396381999999</v>
       </c>
       <c r="V2" s="1">
-        <v>5.313166</v>
+        <v>5.3131659999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>947.681000</v>
+        <v>947.68100000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.822600</v>
+        <v>-87.822599999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>19137.903276</v>
+        <v>19137.903276000001</v>
       </c>
       <c r="AA2" s="1">
         <v>5.316084</v>
       </c>
       <c r="AB2" s="1">
-        <v>954.656000</v>
+        <v>954.65599999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.635500</v>
+        <v>-76.635499999999993</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>19148.148145</v>
+        <v>19148.148144999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.318930</v>
+        <v>5.3189299999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>959.324000</v>
+        <v>959.32399999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.626700</v>
+        <v>-74.6267</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>19158.251191</v>
+        <v>19158.251190999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.321736</v>
+        <v>5.3217359999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>966.436000</v>
+        <v>966.43600000000004</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.683000</v>
+        <v>-79.683000000000007</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>19168.856612</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.324682</v>
+        <v>5.3246820000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>974.571000</v>
+        <v>974.57100000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.478500</v>
+        <v>-91.478499999999997</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>19179.841516</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.327734</v>
+        <v>5.3277340000000004</v>
       </c>
       <c r="AV2" s="1">
-        <v>984.555000</v>
+        <v>984.55499999999995</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.428000</v>
+        <v>-109.428</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>19191.007976</v>
+        <v>19191.007976000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.330836</v>
+        <v>5.3308359999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>992.883000</v>
+        <v>992.88300000000004</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.236000</v>
+        <v>-125.236</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>19201.991384</v>
+        <v>19201.991384000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.333886</v>
+        <v>5.3338859999999997</v>
       </c>
       <c r="BF2" s="1">
-        <v>1031.860000</v>
+        <v>1031.8599999999999</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.690000</v>
+        <v>-197.69</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>19212.988155</v>
+        <v>19212.988154999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>5.336941</v>
+        <v>5.3369410000000004</v>
       </c>
       <c r="BK2" s="1">
-        <v>1098.750000</v>
+        <v>1098.75</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.172000</v>
+        <v>-315.17200000000003</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>19225.102441</v>
+        <v>19225.102440999999</v>
       </c>
       <c r="BO2" s="1">
         <v>5.340306</v>
       </c>
       <c r="BP2" s="1">
-        <v>1207.150000</v>
+        <v>1207.1500000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-500.664000</v>
+        <v>-500.66399999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>19235.874096</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.343298</v>
+        <v>5.3432979999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1328.920000</v>
+        <v>1328.92</v>
       </c>
       <c r="BV2" s="1">
-        <v>-704.605000</v>
+        <v>-704.60500000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>19246.523165</v>
+        <v>19246.523164999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.346256</v>
+        <v>5.3462560000000003</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1466.100000</v>
+        <v>1466.1</v>
       </c>
       <c r="CA2" s="1">
-        <v>-922.619000</v>
+        <v>-922.61900000000003</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>19257.443582</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.349290</v>
+        <v>5.3492899999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1827.000000</v>
+        <v>1827</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1441.250000</v>
+        <v>-1441.25</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>19087.108016</v>
+        <v>19087.108015999998</v>
       </c>
       <c r="B3" s="1">
-        <v>5.301974</v>
+        <v>5.3019740000000004</v>
       </c>
       <c r="C3" s="1">
-        <v>894.733000</v>
+        <v>894.73299999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-199.185000</v>
+        <v>-199.185</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>19097.492267</v>
+        <v>19097.492267000001</v>
       </c>
       <c r="G3" s="1">
-        <v>5.304859</v>
+        <v>5.3048590000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>912.286000</v>
+        <v>912.28599999999994</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.221000</v>
+        <v>-168.221</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>19107.658724</v>
+        <v>19107.658724000001</v>
       </c>
       <c r="L3" s="1">
-        <v>5.307683</v>
+        <v>5.3076829999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>934.953000</v>
+        <v>934.95299999999997</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.918000</v>
+        <v>-118.91800000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>19117.520216</v>
+        <v>19117.520216000001</v>
       </c>
       <c r="Q3" s="1">
         <v>5.310422</v>
       </c>
       <c r="R3" s="1">
-        <v>941.335000</v>
+        <v>941.33500000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.784000</v>
+        <v>-102.78400000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>19127.778939</v>
       </c>
       <c r="V3" s="1">
-        <v>5.313272</v>
+        <v>5.3132720000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>947.681000</v>
+        <v>947.68100000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.897500</v>
+        <v>-87.897499999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>19138.319451</v>
+        <v>19138.319450999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.316200</v>
+        <v>5.3162000000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>954.664000</v>
+        <v>954.66399999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.668000</v>
+        <v>-76.668000000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>19148.562799</v>
+        <v>19148.562798999999</v>
       </c>
       <c r="AF3" s="1">
         <v>5.319045</v>
       </c>
       <c r="AG3" s="1">
-        <v>959.214000</v>
+        <v>959.21400000000006</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.572800</v>
+        <v>-74.572800000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>19158.669778</v>
+        <v>19158.669777999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.321853</v>
+        <v>5.3218529999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>966.420000</v>
+        <v>966.42</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.668600</v>
+        <v>-79.668599999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>19169.242020</v>
+        <v>19169.242020000002</v>
       </c>
       <c r="AP3" s="1">
         <v>5.324789</v>
       </c>
       <c r="AQ3" s="1">
-        <v>974.549000</v>
+        <v>974.54899999999998</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.485500</v>
+        <v>-91.485500000000002</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>19180.211029</v>
+        <v>19180.211028999998</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.327836</v>
+        <v>5.3278359999999996</v>
       </c>
       <c r="AV3" s="1">
-        <v>984.542000</v>
+        <v>984.54200000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.440000</v>
+        <v>-109.44</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>19191.396838</v>
+        <v>19191.396838000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>5.330944</v>
+        <v>5.3309439999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>992.889000</v>
+        <v>992.88900000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.232000</v>
+        <v>-125.232</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>19202.716504</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.334088</v>
+        <v>5.3340880000000004</v>
       </c>
       <c r="BF3" s="1">
-        <v>1031.830000</v>
+        <v>1031.83</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.685000</v>
+        <v>-197.685</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>19213.741576</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.337150</v>
+        <v>5.3371500000000003</v>
       </c>
       <c r="BK3" s="1">
-        <v>1098.740000</v>
+        <v>1098.74</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.157000</v>
+        <v>-315.15699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>19225.515618</v>
+        <v>19225.515618000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>5.340421</v>
+        <v>5.3404210000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-500.649000</v>
+        <v>-500.649</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>19236.308091</v>
+        <v>19236.308090999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.343419</v>
+        <v>5.3434189999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1328.940000</v>
+        <v>1328.94</v>
       </c>
       <c r="BV3" s="1">
-        <v>-704.671000</v>
+        <v>-704.67100000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>19246.986429</v>
       </c>
       <c r="BY3" s="1">
-        <v>5.346385</v>
+        <v>5.3463849999999997</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1466.170000</v>
+        <v>1466.17</v>
       </c>
       <c r="CA3" s="1">
-        <v>-922.588000</v>
+        <v>-922.58799999999997</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>19258.335389</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.349538</v>
+        <v>5.3495379999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1825.820000</v>
+        <v>1825.82</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1440.200000</v>
+        <v>-1440.2</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>19087.445796</v>
       </c>
       <c r="B4" s="1">
-        <v>5.302068</v>
+        <v>5.3020680000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>894.684000</v>
+        <v>894.68399999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-199.240000</v>
+        <v>-199.24</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>19097.836452</v>
       </c>
       <c r="G4" s="1">
-        <v>5.304955</v>
+        <v>5.3049549999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>912.197000</v>
+        <v>912.197</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.240000</v>
+        <v>-168.24</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>19108.005924</v>
+        <v>19108.005924000001</v>
       </c>
       <c r="L4" s="1">
         <v>5.307779</v>
       </c>
       <c r="M4" s="1">
-        <v>934.747000</v>
+        <v>934.74699999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.019000</v>
+        <v>-119.01900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>19117.938807</v>
+        <v>19117.938806999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.310539</v>
+        <v>5.3105390000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>941.356000</v>
+        <v>941.35599999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.805000</v>
+        <v>-102.80500000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>19128.200574</v>
+        <v>19128.200573999999</v>
       </c>
       <c r="V4" s="1">
-        <v>5.313389</v>
+        <v>5.3133889999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>947.710000</v>
+        <v>947.71</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.922900</v>
+        <v>-87.922899999999998</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>19138.639837</v>
+        <v>19138.639836999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.316289</v>
+        <v>5.3162890000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>954.616000</v>
+        <v>954.61599999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.622400</v>
+        <v>-76.622399999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>19148.898623</v>
+        <v>19148.898623000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.319139</v>
+        <v>5.3191389999999998</v>
       </c>
       <c r="AG4" s="1">
-        <v>959.090000</v>
+        <v>959.09</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.815300</v>
+        <v>-74.815299999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>19159.017970</v>
+        <v>19159.017970000001</v>
       </c>
       <c r="AK4" s="1">
         <v>5.321949</v>
       </c>
       <c r="AL4" s="1">
-        <v>966.426000</v>
+        <v>966.42600000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.664400</v>
+        <v>-79.664400000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>19169.601604</v>
+        <v>19169.601603999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.324889</v>
+        <v>5.3248889999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>974.560000</v>
+        <v>974.56</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.498900</v>
+        <v>-91.498900000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>19180.574786</v>
+        <v>19180.574786000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.327937</v>
+        <v>5.3279370000000004</v>
       </c>
       <c r="AV4" s="1">
-        <v>984.524000</v>
+        <v>984.524</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.427000</v>
+        <v>-109.42700000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>19192.113029</v>
@@ -1145,859 +1561,859 @@
         <v>5.331143</v>
       </c>
       <c r="BA4" s="1">
-        <v>992.870000</v>
+        <v>992.87</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.220000</v>
+        <v>-125.22</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>19203.077590</v>
+        <v>19203.077590000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.334188</v>
+        <v>5.3341880000000002</v>
       </c>
       <c r="BF4" s="1">
-        <v>1031.840000</v>
+        <v>1031.8399999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.677000</v>
+        <v>-197.67699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>19214.145320</v>
+        <v>19214.14532</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.337263</v>
+        <v>5.3372630000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1098.760000</v>
+        <v>1098.76</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.143000</v>
+        <v>-315.14299999999997</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>19225.924312</v>
+        <v>19225.924311999999</v>
       </c>
       <c r="BO4" s="1">
         <v>5.340535</v>
       </c>
       <c r="BP4" s="1">
-        <v>1207.160000</v>
+        <v>1207.1600000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-500.678000</v>
+        <v>-500.678</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>19237.029241</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.343619</v>
+        <v>5.3436190000000003</v>
       </c>
       <c r="BU4" s="1">
-        <v>1329.000000</v>
+        <v>1329</v>
       </c>
       <c r="BV4" s="1">
-        <v>-704.621000</v>
+        <v>-704.62099999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>19247.737372</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.346594</v>
+        <v>5.3465939999999996</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1466.130000</v>
+        <v>1466.13</v>
       </c>
       <c r="CA4" s="1">
-        <v>-922.571000</v>
+        <v>-922.57100000000003</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>19258.570989</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.349603</v>
+        <v>5.3496030000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1826.610000</v>
+        <v>1826.61</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1440.980000</v>
+        <v>-1440.98</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>19087.788992</v>
+        <v>19087.788992000002</v>
       </c>
       <c r="B5" s="1">
-        <v>5.302164</v>
+        <v>5.3021640000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>894.682000</v>
+        <v>894.68200000000002</v>
       </c>
       <c r="D5" s="1">
-        <v>-199.013000</v>
+        <v>-199.01300000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>19098.179185</v>
+        <v>19098.179185000001</v>
       </c>
       <c r="G5" s="1">
-        <v>5.305050</v>
+        <v>5.3050499999999996</v>
       </c>
       <c r="H5" s="1">
-        <v>912.563000</v>
+        <v>912.56299999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.165000</v>
+        <v>-168.16499999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>19108.426531</v>
+        <v>19108.426531000001</v>
       </c>
       <c r="L5" s="1">
-        <v>5.307896</v>
+        <v>5.3078960000000004</v>
       </c>
       <c r="M5" s="1">
-        <v>934.614000</v>
+        <v>934.61400000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-118.985000</v>
+        <v>-118.985</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>19118.237398</v>
+        <v>19118.237398000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.310621</v>
+        <v>5.3106210000000003</v>
       </c>
       <c r="R5" s="1">
-        <v>941.358000</v>
+        <v>941.35799999999995</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.808000</v>
+        <v>-102.80800000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>19128.501640</v>
+        <v>19128.501639999999</v>
       </c>
       <c r="V5" s="1">
-        <v>5.313473</v>
+        <v>5.3134730000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>947.663000</v>
+        <v>947.66300000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.907900</v>
+        <v>-87.907899999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>19138.987035</v>
+        <v>19138.987034999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.316385</v>
+        <v>5.3163850000000004</v>
       </c>
       <c r="AB5" s="1">
-        <v>954.715000</v>
+        <v>954.71500000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.517600</v>
+        <v>-76.517600000000002</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>19149.242317</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.319234</v>
+        <v>5.3192339999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>959.322000</v>
+        <v>959.322</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.743700</v>
+        <v>-74.743700000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>19159.367179</v>
+        <v>19159.367179000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.322046</v>
+        <v>5.3220460000000003</v>
       </c>
       <c r="AL5" s="1">
-        <v>966.425000</v>
+        <v>966.42499999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.640200</v>
+        <v>-79.640199999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>19170.329730</v>
+        <v>19170.329730000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.325092</v>
+        <v>5.3250919999999997</v>
       </c>
       <c r="AQ5" s="1">
-        <v>974.590000</v>
+        <v>974.59</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.501600</v>
+        <v>-91.501599999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>19181.304211</v>
+        <v>19181.304210999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.328140</v>
+        <v>5.3281400000000003</v>
       </c>
       <c r="AV5" s="1">
-        <v>984.528000</v>
+        <v>984.52800000000002</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.442000</v>
+        <v>-109.44199999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>19192.473125</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.331243</v>
+        <v>5.3312429999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>992.901000</v>
+        <v>992.90099999999995</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.225000</v>
+        <v>-125.22499999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>19203.438694</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.334289</v>
+        <v>5.3342890000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1031.840000</v>
+        <v>1031.8399999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.683000</v>
+        <v>-197.68299999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>19214.521999</v>
+        <v>19214.521999000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.337367</v>
+        <v>5.3373670000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1098.730000</v>
+        <v>1098.73</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.167000</v>
+        <v>-315.16699999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>19226.637560</v>
+        <v>19226.637559999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.340733</v>
+        <v>5.3407330000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-500.725000</v>
+        <v>-500.72500000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>19237.145305</v>
+        <v>19237.145304999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.343651</v>
+        <v>5.3436510000000004</v>
       </c>
       <c r="BU5" s="1">
-        <v>1328.930000</v>
+        <v>1328.93</v>
       </c>
       <c r="BV5" s="1">
-        <v>-704.595000</v>
+        <v>-704.59500000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>19247.867323</v>
+        <v>19247.867322999999</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.346630</v>
+        <v>5.3466300000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1466.160000</v>
+        <v>1466.16</v>
       </c>
       <c r="CA5" s="1">
-        <v>-922.583000</v>
+        <v>-922.58299999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>19259.090301</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.349747</v>
+        <v>5.3497469999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>1826.190000</v>
+        <v>1826.19</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1440.700000</v>
+        <v>-1440.7</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>19088.226958</v>
+        <v>19088.226957999999</v>
       </c>
       <c r="B6" s="1">
-        <v>5.302285</v>
+        <v>5.3022850000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>894.589000</v>
+        <v>894.58900000000006</v>
       </c>
       <c r="D6" s="1">
-        <v>-199.088000</v>
+        <v>-199.08799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>19098.663281</v>
+        <v>19098.663281000001</v>
       </c>
       <c r="G6" s="1">
-        <v>5.305184</v>
+        <v>5.3051839999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>912.203000</v>
+        <v>912.20299999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.626000</v>
+        <v>-168.626</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>19108.696355</v>
       </c>
       <c r="L6" s="1">
-        <v>5.307971</v>
+        <v>5.3079710000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>934.978000</v>
+        <v>934.97799999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.051000</v>
+        <v>-119.051</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>19118.585127</v>
+        <v>19118.585126999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.310718</v>
+        <v>5.3107179999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>941.305000</v>
+        <v>941.30499999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.804000</v>
+        <v>-102.804</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>19128.841897</v>
+        <v>19128.841896999998</v>
       </c>
       <c r="V6" s="1">
-        <v>5.313567</v>
+        <v>5.3135669999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>947.691000</v>
+        <v>947.69100000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.864400</v>
+        <v>-87.864400000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>19139.336218</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.316482</v>
+        <v>5.3164819999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>954.661000</v>
+        <v>954.66099999999994</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.569800</v>
+        <v>-76.569800000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>19149.820157</v>
+        <v>19149.820156999998</v>
       </c>
       <c r="AF6" s="1">
         <v>5.319394</v>
       </c>
       <c r="AG6" s="1">
-        <v>959.292000</v>
+        <v>959.29200000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.705000</v>
+        <v>-74.704999999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>19160.065055</v>
+        <v>19160.065054999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.322240</v>
+        <v>5.3222399999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>966.417000</v>
+        <v>966.41700000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.656600</v>
+        <v>-79.656599999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>19170.707681</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.325197</v>
+        <v>5.3251970000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>974.554000</v>
+        <v>974.55399999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.497200</v>
+        <v>-91.497200000000007</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>19181.696050</v>
+        <v>19181.696049999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.328249</v>
+        <v>5.3282489999999996</v>
       </c>
       <c r="AV6" s="1">
-        <v>984.556000</v>
+        <v>984.55600000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.435000</v>
+        <v>-109.435</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>19192.832724</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.331342</v>
+        <v>5.3313420000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>992.868000</v>
+        <v>992.86800000000005</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.219000</v>
+        <v>-125.21899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>19204.109765</v>
+        <v>19204.109765000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.334475</v>
+        <v>5.3344750000000003</v>
       </c>
       <c r="BF6" s="1">
-        <v>1031.850000</v>
+        <v>1031.8499999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.677000</v>
+        <v>-197.67699999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>19215.211751</v>
+        <v>19215.211750999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.337559</v>
+        <v>5.3375589999999997</v>
       </c>
       <c r="BK6" s="1">
-        <v>1098.750000</v>
+        <v>1098.75</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.169000</v>
+        <v>-315.16899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>19226.757591</v>
+        <v>19226.757591000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.340766</v>
+        <v>5.3407660000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1207.120000</v>
+        <v>1207.1199999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-500.720000</v>
+        <v>-500.72</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>19237.586364</v>
+        <v>19237.586363999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.343774</v>
+        <v>5.3437739999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1328.940000</v>
+        <v>1328.94</v>
       </c>
       <c r="BV6" s="1">
-        <v>-704.577000</v>
+        <v>-704.577</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>19248.293388</v>
+        <v>19248.293387999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.346748</v>
+        <v>5.3467479999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1466.120000</v>
+        <v>1466.12</v>
       </c>
       <c r="CA6" s="1">
-        <v>-922.637000</v>
+        <v>-922.63699999999994</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>19259.640364</v>
+        <v>19259.640363999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.349900</v>
+        <v>5.3498999999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1825.860000</v>
+        <v>1825.86</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1439.830000</v>
+        <v>-1439.83</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>19088.507693</v>
       </c>
       <c r="B7" s="1">
-        <v>5.302363</v>
+        <v>5.3023629999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>894.565000</v>
+        <v>894.56500000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.907000</v>
+        <v>-198.90700000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>19098.884001</v>
+        <v>19098.884000999999</v>
       </c>
       <c r="G7" s="1">
-        <v>5.305246</v>
+        <v>5.3052460000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>911.895000</v>
+        <v>911.89499999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.833000</v>
+        <v>-167.833</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>19109.048018</v>
+        <v>19109.048018000001</v>
       </c>
       <c r="L7" s="1">
-        <v>5.308069</v>
+        <v>5.3080689999999997</v>
       </c>
       <c r="M7" s="1">
-        <v>934.895000</v>
+        <v>934.89499999999998</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.069000</v>
+        <v>-119.069</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>19118.937261</v>
+        <v>19118.937260999999</v>
       </c>
       <c r="Q7" s="1">
         <v>5.310816</v>
       </c>
       <c r="R7" s="1">
-        <v>941.323000</v>
+        <v>941.32299999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.781000</v>
+        <v>-102.78100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>19129.187577</v>
+        <v>19129.187577000001</v>
       </c>
       <c r="V7" s="1">
         <v>5.313663</v>
       </c>
       <c r="W7" s="1">
-        <v>947.668000</v>
+        <v>947.66800000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.945000</v>
+        <v>-87.944999999999993</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>19140.034090</v>
+        <v>19140.034090000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.316676</v>
+        <v>5.3166760000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>954.615000</v>
+        <v>954.61500000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.560600</v>
+        <v>-76.560599999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>19149.934237</v>
+        <v>19149.934237000001</v>
       </c>
       <c r="AF7" s="1">
         <v>5.319426</v>
       </c>
       <c r="AG7" s="1">
-        <v>959.168000</v>
+        <v>959.16800000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.604700</v>
+        <v>-74.604699999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>19160.412718</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.322337</v>
+        <v>5.3223370000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>966.439000</v>
+        <v>966.43899999999996</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.652900</v>
+        <v>-79.652900000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>19171.065794</v>
+        <v>19171.065793999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.325296</v>
+        <v>5.3252959999999998</v>
       </c>
       <c r="AQ7" s="1">
-        <v>974.549000</v>
+        <v>974.54899999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.496200</v>
+        <v>-91.496200000000002</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>19182.059159</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.328350</v>
+        <v>5.3283500000000004</v>
       </c>
       <c r="AV7" s="1">
-        <v>984.529000</v>
+        <v>984.529</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.445000</v>
+        <v>-109.44499999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>19193.495875</v>
+        <v>19193.495875000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.331527</v>
+        <v>5.3315270000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>992.892000</v>
+        <v>992.89200000000005</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.220000</v>
+        <v>-125.22</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>19204.553188</v>
+        <v>19204.553188000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.334598</v>
+        <v>5.3345979999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1031.850000</v>
+        <v>1031.8499999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.713000</v>
+        <v>-197.71299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>19215.678951</v>
+        <v>19215.678951000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.337689</v>
+        <v>5.3376890000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1098.750000</v>
+        <v>1098.75</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.163000</v>
+        <v>-315.16300000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>19227.165798</v>
+        <v>19227.165798000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.340879</v>
+        <v>5.3408790000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1207.130000</v>
+        <v>1207.1300000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-500.696000</v>
+        <v>-500.69600000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>19237.998920</v>
+        <v>19237.998920000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.343889</v>
+        <v>5.3438889999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1328.940000</v>
+        <v>1328.94</v>
       </c>
       <c r="BV7" s="1">
-        <v>-704.623000</v>
+        <v>-704.62300000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>19248.710522</v>
+        <v>19248.710522000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.346864</v>
+        <v>5.3468640000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1466.140000</v>
+        <v>1466.14</v>
       </c>
       <c r="CA7" s="1">
-        <v>-922.682000</v>
+        <v>-922.68200000000002</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>19260.170619</v>
@@ -2006,225 +2422,225 @@
         <v>5.350047</v>
       </c>
       <c r="CE7" s="1">
-        <v>1826.140000</v>
+        <v>1826.14</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1440.860000</v>
+        <v>-1440.86</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>19088.851421</v>
+        <v>19088.851420999999</v>
       </c>
       <c r="B8" s="1">
-        <v>5.302459</v>
+        <v>5.3024589999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>894.551000</v>
+        <v>894.55100000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.869000</v>
+        <v>-198.869</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>19099.230705</v>
+        <v>19099.230705000002</v>
       </c>
       <c r="G8" s="1">
-        <v>5.305342</v>
+        <v>5.3053419999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>912.140000</v>
+        <v>912.14</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.827000</v>
+        <v>-167.827</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>19109.390754</v>
       </c>
       <c r="L8" s="1">
-        <v>5.308164</v>
+        <v>5.3081639999999997</v>
       </c>
       <c r="M8" s="1">
-        <v>934.459000</v>
+        <v>934.45899999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.078000</v>
+        <v>-119.078</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>19119.633142</v>
+        <v>19119.633141999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>5.311009</v>
+        <v>5.3110090000000003</v>
       </c>
       <c r="R8" s="1">
-        <v>941.328000</v>
+        <v>941.32799999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.753000</v>
+        <v>-102.753</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>19129.873544</v>
+        <v>19129.873543999998</v>
       </c>
       <c r="V8" s="1">
-        <v>5.313854</v>
+        <v>5.3138540000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>947.695000</v>
+        <v>947.69500000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.974500</v>
+        <v>-87.974500000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>19140.382281</v>
+        <v>19140.382280999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.316773</v>
+        <v>5.3167730000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>954.596000</v>
+        <v>954.596</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.552300</v>
+        <v>-76.552300000000002</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>19150.273004</v>
+        <v>19150.273003999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.319520</v>
+        <v>5.3195199999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>959.261000</v>
+        <v>959.26099999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.573400</v>
+        <v>-74.573400000000007</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>19160.761406</v>
+        <v>19160.761406000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>5.322434</v>
+        <v>5.3224340000000003</v>
       </c>
       <c r="AL8" s="1">
-        <v>966.443000</v>
+        <v>966.44299999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.662200</v>
+        <v>-79.662199999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>19171.722528</v>
+        <v>19171.722527999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.325478</v>
+        <v>5.3254780000000004</v>
       </c>
       <c r="AQ8" s="1">
-        <v>974.561000</v>
+        <v>974.56100000000004</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.503400</v>
+        <v>-91.503399999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>19182.770385</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.328547</v>
+        <v>5.3285470000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>984.519000</v>
+        <v>984.51900000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.459000</v>
+        <v>-109.459</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>19193.906885</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.331641</v>
+        <v>5.3316410000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>992.876000</v>
+        <v>992.87599999999998</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.228000</v>
+        <v>-125.22799999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>19204.914772</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.334699</v>
+        <v>5.3346989999999996</v>
       </c>
       <c r="BF8" s="1">
-        <v>1031.840000</v>
+        <v>1031.8399999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.680000</v>
+        <v>-197.68</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>19216.065830</v>
+        <v>19216.06583</v>
       </c>
       <c r="BJ8" s="1">
         <v>5.337796</v>
       </c>
       <c r="BK8" s="1">
-        <v>1098.760000</v>
+        <v>1098.76</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.171000</v>
+        <v>-315.17099999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>19227.564087</v>
+        <v>19227.564086999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.340990</v>
+        <v>5.3409899999999997</v>
       </c>
       <c r="BP8" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-500.702000</v>
+        <v>-500.702</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>19238.414567</v>
@@ -2233,1465 +2649,1465 @@
         <v>5.344004</v>
       </c>
       <c r="BU8" s="1">
-        <v>1328.960000</v>
+        <v>1328.96</v>
       </c>
       <c r="BV8" s="1">
-        <v>-704.582000</v>
+        <v>-704.58199999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>19249.158905</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.346989</v>
+        <v>5.3469889999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1466.110000</v>
+        <v>1466.11</v>
       </c>
       <c r="CA8" s="1">
-        <v>-922.567000</v>
+        <v>-922.56700000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>19260.691914</v>
+        <v>19260.691913999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.350192</v>
+        <v>5.3501919999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>1827.360000</v>
+        <v>1827.36</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1440.020000</v>
+        <v>-1440.02</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>19089.189197</v>
       </c>
       <c r="B9" s="1">
-        <v>5.302553</v>
+        <v>5.3025529999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>894.644000</v>
+        <v>894.64400000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-199.099000</v>
+        <v>-199.09899999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>19099.919680</v>
+        <v>19099.919679999999</v>
       </c>
       <c r="G9" s="1">
-        <v>5.305533</v>
+        <v>5.3055329999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>912.456000</v>
+        <v>912.45600000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.603000</v>
+        <v>-167.60300000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>19110.077713</v>
+        <v>19110.077712999999</v>
       </c>
       <c r="L9" s="1">
-        <v>5.308355</v>
+        <v>5.3083549999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>934.871000</v>
+        <v>934.87099999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.224000</v>
+        <v>-119.224</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>19119.981364</v>
+        <v>19119.981363999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.311106</v>
+        <v>5.3111059999999997</v>
       </c>
       <c r="R9" s="1">
-        <v>941.381000</v>
+        <v>941.38099999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.794000</v>
+        <v>-102.794</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>19130.219254</v>
       </c>
       <c r="V9" s="1">
-        <v>5.313950</v>
+        <v>5.3139500000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>947.732000</v>
+        <v>947.73199999999997</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.972200</v>
+        <v>-87.972200000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>19140.730505</v>
       </c>
       <c r="AA9" s="1">
-        <v>5.316870</v>
+        <v>5.3168699999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>954.710000</v>
+        <v>954.71</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.546700</v>
+        <v>-76.546700000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>19150.936651</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.319705</v>
+        <v>5.3197049999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>959.352000</v>
+        <v>959.35199999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.514100</v>
+        <v>-74.514099999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>19161.418605</v>
+        <v>19161.418604999999</v>
       </c>
       <c r="AK9" s="1">
         <v>5.322616</v>
       </c>
       <c r="AL9" s="1">
-        <v>966.412000</v>
+        <v>966.41200000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.671400</v>
+        <v>-79.671400000000006</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>19172.146111</v>
+        <v>19172.146110999998</v>
       </c>
       <c r="AP9" s="1">
         <v>5.325596</v>
       </c>
       <c r="AQ9" s="1">
-        <v>974.575000</v>
+        <v>974.57500000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.510900</v>
+        <v>-91.510900000000007</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>19183.179120</v>
+        <v>19183.179120000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.328661</v>
+        <v>5.3286610000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>984.521000</v>
+        <v>984.52099999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.434000</v>
+        <v>-109.434</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>19194.293443</v>
+        <v>19194.293442999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.331748</v>
+        <v>5.3317480000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>992.896000</v>
+        <v>992.89599999999996</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.239000</v>
+        <v>-125.239</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>19205.274372</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.334798</v>
+        <v>5.3347980000000002</v>
       </c>
       <c r="BF9" s="1">
-        <v>1031.830000</v>
+        <v>1031.83</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.691000</v>
+        <v>-197.691</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>19216.442293</v>
       </c>
       <c r="BJ9" s="1">
-        <v>5.337901</v>
+        <v>5.3379009999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1098.740000</v>
+        <v>1098.74</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.181000</v>
+        <v>-315.18099999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>19227.986679</v>
+        <v>19227.986679000001</v>
       </c>
       <c r="BO9" s="1">
         <v>5.341107</v>
       </c>
       <c r="BP9" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-500.708000</v>
+        <v>-500.70800000000003</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>19238.832201</v>
+        <v>19238.832201000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>5.344120</v>
+        <v>5.3441200000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1328.980000</v>
+        <v>1328.98</v>
       </c>
       <c r="BV9" s="1">
-        <v>-704.634000</v>
+        <v>-704.63400000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>19249.581498</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.347106</v>
+        <v>5.3471060000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1466.020000</v>
+        <v>1466.02</v>
       </c>
       <c r="CA9" s="1">
-        <v>-922.649000</v>
+        <v>-922.649</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>19261.226569</v>
+        <v>19261.226568999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.350341</v>
+        <v>5.3503410000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1825.880000</v>
+        <v>1825.88</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1440.560000</v>
+        <v>-1440.56</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>19089.875164</v>
+        <v>19089.875164000001</v>
       </c>
       <c r="B10" s="1">
-        <v>5.302743</v>
+        <v>5.3027430000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>894.466000</v>
+        <v>894.46600000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.974000</v>
+        <v>-198.97399999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>19100.263407</v>
+        <v>19100.263406999999</v>
       </c>
       <c r="G10" s="1">
-        <v>5.305629</v>
+        <v>5.3056289999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>912.129000</v>
+        <v>912.12900000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.239000</v>
+        <v>-168.239</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>19110.429917</v>
+        <v>19110.429917000001</v>
       </c>
       <c r="L10" s="1">
-        <v>5.308453</v>
+        <v>5.3084530000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>934.649000</v>
+        <v>934.649</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.975000</v>
+        <v>-118.97499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>19120.330252</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.311203</v>
+        <v>5.3112029999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>941.381000</v>
+        <v>941.38099999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.821000</v>
+        <v>-102.821</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>19130.562607</v>
       </c>
       <c r="V10" s="1">
-        <v>5.314045</v>
+        <v>5.3140450000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>947.748000</v>
+        <v>947.74800000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.880500</v>
+        <v>-87.880499999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>19141.382247</v>
+        <v>19141.382247000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.317051</v>
+        <v>5.3170510000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>954.653000</v>
+        <v>954.65300000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.640600</v>
+        <v>-76.640600000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>19151.305180</v>
+        <v>19151.305179999999</v>
       </c>
       <c r="AF10" s="1">
         <v>5.319807</v>
       </c>
       <c r="AG10" s="1">
-        <v>959.140000</v>
+        <v>959.14</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.835300</v>
+        <v>-74.835300000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>19161.804526</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.322723</v>
+        <v>5.3227229999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>966.420000</v>
+        <v>966.42</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.630500</v>
+        <v>-79.630499999999998</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>19172.531503</v>
+        <v>19172.531502999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.325703</v>
+        <v>5.3257029999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>974.570000</v>
+        <v>974.57</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.485200</v>
+        <v>-91.485200000000006</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>19183.546129</v>
+        <v>19183.546128999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.328763</v>
+        <v>5.3287630000000004</v>
       </c>
       <c r="AV10" s="1">
-        <v>984.538000</v>
+        <v>984.53800000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.428000</v>
+        <v>-109.428</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>19194.654562</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.331848</v>
+        <v>5.3318479999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>992.872000</v>
+        <v>992.87199999999996</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.209000</v>
+        <v>-125.209</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>19205.681587</v>
+        <v>19205.681586999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.334912</v>
+        <v>5.3349120000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1031.870000</v>
+        <v>1031.8699999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.691000</v>
+        <v>-197.691</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>19217.191251</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.338109</v>
+        <v>5.3381090000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1098.770000</v>
+        <v>1098.77</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.160000</v>
+        <v>-315.16000000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>19228.381989</v>
+        <v>19228.381989000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.341217</v>
+        <v>5.3412170000000003</v>
       </c>
       <c r="BP10" s="1">
-        <v>1207.160000</v>
+        <v>1207.1600000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-500.705000</v>
+        <v>-500.70499999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>19239.242919</v>
       </c>
       <c r="BT10" s="1">
-        <v>5.344234</v>
+        <v>5.3442340000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1328.990000</v>
+        <v>1328.99</v>
       </c>
       <c r="BV10" s="1">
-        <v>-704.579000</v>
+        <v>-704.57899999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>19250.003592</v>
+        <v>19250.003592000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.347223</v>
+        <v>5.3472229999999996</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1466.050000</v>
+        <v>1466.05</v>
       </c>
       <c r="CA10" s="1">
-        <v>-922.725000</v>
+        <v>-922.72500000000002</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>19261.768201</v>
+        <v>19261.768200999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.350491</v>
+        <v>5.3504909999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1827.200000</v>
+        <v>1827.2</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1440.620000</v>
+        <v>-1440.62</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>19090.219883</v>
+        <v>19090.219883000002</v>
       </c>
       <c r="B11" s="1">
-        <v>5.302839</v>
+        <v>5.3028389999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>894.539000</v>
+        <v>894.53899999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-199.016000</v>
+        <v>-199.01599999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>19100.608094</v>
+        <v>19100.608093999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5.305724</v>
+        <v>5.3057239999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>911.875000</v>
+        <v>911.875</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.144000</v>
+        <v>-168.14400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>19110.773602</v>
+        <v>19110.773602000001</v>
       </c>
       <c r="L11" s="1">
         <v>5.308548</v>
       </c>
       <c r="M11" s="1">
-        <v>934.882000</v>
+        <v>934.88199999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.826000</v>
+        <v>-118.82599999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>19120.988243</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.311386</v>
+        <v>5.3113859999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>941.322000</v>
+        <v>941.322</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.830000</v>
+        <v>-102.83</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>19131.240557</v>
+        <v>19131.240557000001</v>
       </c>
       <c r="V11" s="1">
-        <v>5.314233</v>
+        <v>5.3142329999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>947.640000</v>
+        <v>947.64</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.941000</v>
+        <v>-87.941000000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>19141.780034</v>
+        <v>19141.780033999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.317161</v>
+        <v>5.3171609999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>954.579000</v>
+        <v>954.57899999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.557600</v>
+        <v>-76.557599999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>19151.648906</v>
+        <v>19151.648905999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.319902</v>
+        <v>5.3199019999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>959.240000</v>
+        <v>959.24</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.603000</v>
+        <v>-74.602999999999994</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>19162.158141</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.322822</v>
+        <v>5.3228220000000004</v>
       </c>
       <c r="AL11" s="1">
-        <v>966.423000</v>
+        <v>966.423</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.635000</v>
+        <v>-79.635000000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
         <v>19172.889584</v>
       </c>
       <c r="AP11" s="1">
-        <v>5.325803</v>
+        <v>5.3258029999999996</v>
       </c>
       <c r="AQ11" s="1">
-        <v>974.576000</v>
+        <v>974.57600000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.495100</v>
+        <v>-91.495099999999994</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>19183.960815</v>
+        <v>19183.960814999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.328878</v>
+        <v>5.3288779999999996</v>
       </c>
       <c r="AV11" s="1">
-        <v>984.539000</v>
+        <v>984.53899999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.440000</v>
+        <v>-109.44</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>19195.076626</v>
+        <v>19195.076625999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.331966</v>
+        <v>5.3319660000000004</v>
       </c>
       <c r="BA11" s="1">
-        <v>992.888000</v>
+        <v>992.88800000000003</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.220000</v>
+        <v>-125.22</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>19205.997042</v>
+        <v>19205.997041999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>5.334999</v>
+        <v>5.3349989999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1031.840000</v>
+        <v>1031.8399999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.699000</v>
+        <v>-197.69900000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>19217.568739</v>
+        <v>19217.568738999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.338214</v>
+        <v>5.3382139999999998</v>
       </c>
       <c r="BK11" s="1">
-        <v>1098.770000</v>
+        <v>1098.77</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.156000</v>
+        <v>-315.15600000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>19228.803861</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.341334</v>
+        <v>5.3413339999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-500.682000</v>
+        <v>-500.68200000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>19239.659526</v>
+        <v>19239.659525999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.344350</v>
+        <v>5.3443500000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>1329.050000</v>
+        <v>1329.05</v>
       </c>
       <c r="BV11" s="1">
-        <v>-704.560000</v>
+        <v>-704.56</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>19250.782841</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.347440</v>
+        <v>5.3474399999999997</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1466.110000</v>
+        <v>1466.11</v>
       </c>
       <c r="CA11" s="1">
-        <v>-922.583000</v>
+        <v>-922.58299999999997</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>19262.308376</v>
+        <v>19262.308376000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.350641</v>
+        <v>5.3506410000000004</v>
       </c>
       <c r="CE11" s="1">
-        <v>1826.630000</v>
+        <v>1826.63</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1439.290000</v>
+        <v>-1439.29</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>19090.560635</v>
+        <v>19090.560635000002</v>
       </c>
       <c r="B12" s="1">
-        <v>5.302934</v>
+        <v>5.3029339999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>894.825000</v>
+        <v>894.82500000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-199.125000</v>
+        <v>-199.125</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>19101.269293</v>
+        <v>19101.269293000001</v>
       </c>
       <c r="G12" s="1">
-        <v>5.305908</v>
+        <v>5.3059079999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>912.236000</v>
+        <v>912.23599999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.015000</v>
+        <v>-168.01499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>19111.414441</v>
+        <v>19111.414441000001</v>
       </c>
       <c r="L12" s="1">
-        <v>5.308726</v>
+        <v>5.3087260000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>934.755000</v>
+        <v>934.755</v>
       </c>
       <c r="N12" s="1">
-        <v>-118.906000</v>
+        <v>-118.90600000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>19121.375619</v>
+        <v>19121.375618999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.311493</v>
+        <v>5.3114929999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>941.303000</v>
+        <v>941.303</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.817000</v>
+        <v>-102.81699999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>19131.598630</v>
+        <v>19131.59863</v>
       </c>
       <c r="V12" s="1">
-        <v>5.314333</v>
+        <v>5.3143330000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>947.697000</v>
+        <v>947.697</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.875400</v>
+        <v>-87.875399999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>19142.126216</v>
+        <v>19142.126216000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.317257</v>
+        <v>5.3172569999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>954.630000</v>
+        <v>954.63</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.431800</v>
+        <v>-76.431799999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>19151.994618</v>
+        <v>19151.994618000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.319999</v>
+        <v>5.3199990000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>959.372000</v>
+        <v>959.37199999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.660800</v>
+        <v>-74.660799999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>19162.506829</v>
+        <v>19162.506829000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.322919</v>
+        <v>5.3229189999999997</v>
       </c>
       <c r="AL12" s="1">
-        <v>966.421000</v>
+        <v>966.42100000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.640200</v>
+        <v>-79.640199999999993</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>19173.299773</v>
+        <v>19173.299772999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.325917</v>
+        <v>5.3259169999999996</v>
       </c>
       <c r="AQ12" s="1">
-        <v>974.551000</v>
+        <v>974.55100000000004</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.484300</v>
+        <v>-91.484300000000005</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>19184.273264</v>
+        <v>19184.273263999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.328965</v>
+        <v>5.3289650000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>984.533000</v>
+        <v>984.53300000000002</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.421000</v>
+        <v>-109.42100000000001</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>19195.371776</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.332048</v>
+        <v>5.3320480000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>992.900000</v>
+        <v>992.9</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.223000</v>
+        <v>-125.223</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>19206.358626</v>
+        <v>19206.358626000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.335100</v>
+        <v>5.3350999999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1031.840000</v>
+        <v>1031.8399999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.685000</v>
+        <v>-197.685</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>19217.944179</v>
+        <v>19217.944178999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.338318</v>
+        <v>5.3383180000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1098.750000</v>
+        <v>1098.75</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.168000</v>
+        <v>-315.16800000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>19229.199892</v>
+        <v>19229.199892000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.341444</v>
+        <v>5.3414440000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1207.100000</v>
+        <v>1207.0999999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-500.686000</v>
+        <v>-500.68599999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>19240.097526</v>
+        <v>19240.097526000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.344472</v>
+        <v>5.3444719999999997</v>
       </c>
       <c r="BU12" s="1">
-        <v>1328.980000</v>
+        <v>1328.98</v>
       </c>
       <c r="BV12" s="1">
-        <v>-704.558000</v>
+        <v>-704.55799999999999</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>19250.907799</v>
+        <v>19250.907799000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.347474</v>
+        <v>5.3474740000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1466.030000</v>
+        <v>1466.03</v>
       </c>
       <c r="CA12" s="1">
-        <v>-922.581000</v>
+        <v>-922.58100000000002</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>19262.849481</v>
+        <v>19262.849481000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.350792</v>
+        <v>5.3507920000000002</v>
       </c>
       <c r="CE12" s="1">
-        <v>1826.080000</v>
+        <v>1826.08</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1441.180000</v>
+        <v>-1441.18</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>19091.205434</v>
       </c>
       <c r="B13" s="1">
-        <v>5.303113</v>
+        <v>5.3031129999999997</v>
       </c>
       <c r="C13" s="1">
-        <v>894.808000</v>
+        <v>894.80799999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-199.015000</v>
+        <v>-199.01499999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>19101.641757</v>
+        <v>19101.641757000001</v>
       </c>
       <c r="G13" s="1">
         <v>5.306012</v>
       </c>
       <c r="H13" s="1">
-        <v>912.290000</v>
+        <v>912.29</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.276000</v>
+        <v>-168.27600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>19111.811760</v>
+        <v>19111.811760000001</v>
       </c>
       <c r="L13" s="1">
-        <v>5.308837</v>
+        <v>5.3088369999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>934.478000</v>
+        <v>934.47799999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.185000</v>
+        <v>-119.185</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>19121.725793</v>
+        <v>19121.725793000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.311590</v>
+        <v>5.3115899999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>941.324000</v>
+        <v>941.32399999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.775000</v>
+        <v>-102.77500000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>19131.944377</v>
       </c>
       <c r="V13" s="1">
-        <v>5.314429</v>
+        <v>5.3144289999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>947.724000</v>
+        <v>947.72400000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.940600</v>
+        <v>-87.940600000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>19142.475398</v>
+        <v>19142.475397999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.317354</v>
+        <v>5.3173539999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>954.594000</v>
+        <v>954.59400000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.595100</v>
+        <v>-76.595100000000002</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>19152.418698</v>
+        <v>19152.418698000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.320116</v>
+        <v>5.3201159999999996</v>
       </c>
       <c r="AG13" s="1">
-        <v>959.209000</v>
+        <v>959.20899999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.614700</v>
+        <v>-74.614699999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>19162.933884</v>
+        <v>19162.933883999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.323037</v>
+        <v>5.3230370000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>966.429000</v>
+        <v>966.42899999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.668900</v>
+        <v>-79.668899999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>19173.610797</v>
+        <v>19173.610797000001</v>
       </c>
       <c r="AP13" s="1">
         <v>5.326003</v>
       </c>
       <c r="AQ13" s="1">
-        <v>974.571000</v>
+        <v>974.57100000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.503600</v>
+        <v>-91.503600000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>19184.638320</v>
+        <v>19184.638319999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.329066</v>
+        <v>5.3290660000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>984.529000</v>
+        <v>984.529</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.453000</v>
+        <v>-109.453</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>19195.731344</v>
       </c>
       <c r="AZ13" s="1">
-        <v>5.332148</v>
+        <v>5.3321480000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>992.888000</v>
+        <v>992.88800000000003</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.235000</v>
+        <v>-125.235</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>19206.721698</v>
+        <v>19206.721698000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.335200</v>
+        <v>5.3352000000000004</v>
       </c>
       <c r="BF13" s="1">
-        <v>1031.840000</v>
+        <v>1031.8399999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.672000</v>
+        <v>-197.672</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>19218.694129</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.338526</v>
+        <v>5.3385259999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1098.770000</v>
+        <v>1098.77</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.182000</v>
+        <v>-315.18200000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>19229.630419</v>
+        <v>19229.630419000001</v>
       </c>
       <c r="BO13" s="1">
         <v>5.341564</v>
       </c>
       <c r="BP13" s="1">
-        <v>1207.150000</v>
+        <v>1207.1500000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-500.728000</v>
+        <v>-500.72800000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>19240.527525</v>
+        <v>19240.527525000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.344591</v>
+        <v>5.3445910000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>1329.000000</v>
+        <v>1329</v>
       </c>
       <c r="BV13" s="1">
-        <v>-704.590000</v>
+        <v>-704.59</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>19251.320497</v>
+        <v>19251.320497000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.347589</v>
+        <v>5.3475890000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1466.110000</v>
+        <v>1466.11</v>
       </c>
       <c r="CA13" s="1">
-        <v>-922.641000</v>
+        <v>-922.64099999999996</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>19263.389624</v>
+        <v>19263.389623999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.350942</v>
+        <v>5.3509419999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1827.630000</v>
+        <v>1827.63</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1440.220000</v>
+        <v>-1440.22</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>19091.584874</v>
       </c>
       <c r="B14" s="1">
-        <v>5.303218</v>
+        <v>5.3032180000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>894.624000</v>
+        <v>894.62400000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-199.146000</v>
+        <v>-199.14599999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>19101.987468</v>
+        <v>19101.987467999999</v>
       </c>
       <c r="G14" s="1">
         <v>5.306108</v>
       </c>
       <c r="H14" s="1">
-        <v>912.345000</v>
+        <v>912.34500000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.282000</v>
+        <v>-168.28200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>19112.156446</v>
+        <v>19112.156446000001</v>
       </c>
       <c r="L14" s="1">
-        <v>5.308932</v>
+        <v>5.3089320000000004</v>
       </c>
       <c r="M14" s="1">
-        <v>934.894000</v>
+        <v>934.89400000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.091000</v>
+        <v>-119.09099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>19122.075939</v>
+        <v>19122.075938999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.311688</v>
+        <v>5.3116880000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>941.335000</v>
+        <v>941.33500000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.779000</v>
+        <v>-102.779</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>19132.310389</v>
+        <v>19132.310388999998</v>
       </c>
       <c r="V14" s="1">
-        <v>5.314531</v>
+        <v>5.3145309999999997</v>
       </c>
       <c r="W14" s="1">
-        <v>947.643000</v>
+        <v>947.64300000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.948000</v>
+        <v>-87.947999999999993</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>19142.906919</v>
+        <v>19142.906919000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.317474</v>
+        <v>5.3174739999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>954.668000</v>
+        <v>954.66800000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.511300</v>
+        <v>-76.511300000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>19152.693981</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.320193</v>
+        <v>5.3201929999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>959.248000</v>
+        <v>959.24800000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.697000</v>
+        <v>-74.697000000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>19163.214123</v>
+        <v>19163.214123000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.323115</v>
+        <v>5.3231149999999996</v>
       </c>
       <c r="AL14" s="1">
-        <v>966.426000</v>
+        <v>966.42600000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.670600</v>
+        <v>-79.670599999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>19173.971389</v>
+        <v>19173.971388999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.326103</v>
+        <v>5.3261029999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>974.573000</v>
+        <v>974.57299999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.495300</v>
+        <v>-91.4953</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>19185.002912</v>
@@ -3700,407 +4116,407 @@
         <v>5.329167</v>
       </c>
       <c r="AV14" s="1">
-        <v>984.553000</v>
+        <v>984.553</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.432000</v>
+        <v>-109.432</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>19196.086512</v>
+        <v>19196.086512000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.332246</v>
+        <v>5.3322459999999996</v>
       </c>
       <c r="BA14" s="1">
-        <v>992.907000</v>
+        <v>992.90700000000004</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.227000</v>
+        <v>-125.227</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>19207.442880</v>
+        <v>19207.442879999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.335401</v>
+        <v>5.3354010000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1031.860000</v>
+        <v>1031.8599999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.670000</v>
+        <v>-197.67</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>19219.068113</v>
+        <v>19219.068113000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.338630</v>
+        <v>5.3386300000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1098.750000</v>
+        <v>1098.75</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.140000</v>
+        <v>-315.14</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>19230.020458</v>
+        <v>19230.020457999999</v>
       </c>
       <c r="BO14" s="1">
         <v>5.341672</v>
       </c>
       <c r="BP14" s="1">
-        <v>1207.180000</v>
+        <v>1207.18</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-500.698000</v>
+        <v>-500.69799999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>19240.937252</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.344705</v>
+        <v>5.3447050000000003</v>
       </c>
       <c r="BU14" s="1">
-        <v>1328.990000</v>
+        <v>1328.99</v>
       </c>
       <c r="BV14" s="1">
-        <v>-704.537000</v>
+        <v>-704.53700000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>19252.085302</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.347801</v>
+        <v>5.3478009999999996</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1466.060000</v>
+        <v>1466.06</v>
       </c>
       <c r="CA14" s="1">
-        <v>-922.519000</v>
+        <v>-922.51900000000001</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>19264.227862</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.351174</v>
+        <v>5.3511740000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>1826.470000</v>
+        <v>1826.47</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1441.200000</v>
+        <v>-1441.2</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>19091.930089</v>
+        <v>19091.930089000001</v>
       </c>
       <c r="B15" s="1">
-        <v>5.303314</v>
+        <v>5.3033140000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>894.693000</v>
+        <v>894.69299999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.969000</v>
+        <v>-198.96899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>19102.332716</v>
+        <v>19102.332716000001</v>
       </c>
       <c r="G15" s="1">
-        <v>5.306204</v>
+        <v>5.3062040000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>911.963000</v>
+        <v>911.96299999999997</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.198000</v>
+        <v>-168.19800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>19112.506622</v>
+        <v>19112.506622000001</v>
       </c>
       <c r="L15" s="1">
-        <v>5.309030</v>
+        <v>5.3090299999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>934.898000</v>
+        <v>934.89800000000002</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.989000</v>
+        <v>-118.989</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>19122.501537</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.311806</v>
+        <v>5.3118059999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>941.358000</v>
+        <v>941.35799999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.808000</v>
+        <v>-102.80800000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>19132.996850</v>
+        <v>19132.99685</v>
       </c>
       <c r="V15" s="1">
-        <v>5.314721</v>
+        <v>5.3147209999999996</v>
       </c>
       <c r="W15" s="1">
-        <v>947.693000</v>
+        <v>947.69299999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.935900</v>
+        <v>-87.935900000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>19143.185205</v>
+        <v>19143.185205000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.317551</v>
+        <v>5.3175509999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>954.567000</v>
+        <v>954.56700000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.669800</v>
+        <v>-76.669799999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>19153.035224</v>
+        <v>19153.035223999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.320288</v>
+        <v>5.3202879999999997</v>
       </c>
       <c r="AG15" s="1">
-        <v>959.247000</v>
+        <v>959.24699999999996</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.748200</v>
+        <v>-74.748199999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>19163.561322</v>
+        <v>19163.561322000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.323211</v>
+        <v>5.3232109999999997</v>
       </c>
       <c r="AL15" s="1">
-        <v>966.436000</v>
+        <v>966.43600000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.646300</v>
+        <v>-79.646299999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>19174.331949</v>
+        <v>19174.331948999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.326203</v>
+        <v>5.3262029999999996</v>
       </c>
       <c r="AQ15" s="1">
-        <v>974.566000</v>
+        <v>974.56600000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.486200</v>
+        <v>-91.486199999999997</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>19185.732990</v>
+        <v>19185.73299</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.329370</v>
+        <v>5.3293699999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>984.548000</v>
+        <v>984.548</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.434000</v>
+        <v>-109.434</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>19196.811134</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.332448</v>
+        <v>5.3324480000000003</v>
       </c>
       <c r="BA15" s="1">
-        <v>992.882000</v>
+        <v>992.88199999999995</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.213000</v>
+        <v>-125.21299999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>19207.833728</v>
+        <v>19207.833728000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.335509</v>
+        <v>5.3355090000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1031.850000</v>
+        <v>1031.8499999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.681000</v>
+        <v>-197.68100000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>19219.445606</v>
+        <v>19219.445606000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.338735</v>
+        <v>5.3387349999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1098.730000</v>
+        <v>1098.73</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.168000</v>
+        <v>-315.16800000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>19230.441874</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.341789</v>
+        <v>5.3417890000000003</v>
       </c>
       <c r="BP15" s="1">
-        <v>1207.170000</v>
+        <v>1207.17</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-500.703000</v>
+        <v>-500.70299999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>19241.677747</v>
+        <v>19241.677747000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.344910</v>
+        <v>5.3449099999999996</v>
       </c>
       <c r="BU15" s="1">
-        <v>1329.030000</v>
+        <v>1329.03</v>
       </c>
       <c r="BV15" s="1">
-        <v>-704.590000</v>
+        <v>-704.59</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>19252.225181</v>
+        <v>19252.225181000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.347840</v>
+        <v>5.3478399999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1466.150000</v>
+        <v>1466.15</v>
       </c>
       <c r="CA15" s="1">
-        <v>-922.687000</v>
+        <v>-922.68700000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>19264.467438</v>
       </c>
       <c r="CD15" s="1">
-        <v>5.351241</v>
+        <v>5.3512409999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1826.780000</v>
+        <v>1826.78</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1441.410000</v>
+        <v>-1441.41</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>19092.272330</v>
+        <v>19092.27233</v>
       </c>
       <c r="B16" s="1">
-        <v>5.303409</v>
+        <v>5.3034090000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>894.704000</v>
+        <v>894.70399999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.919000</v>
+        <v>-198.91900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>19102.754323</v>
+        <v>19102.754323000001</v>
       </c>
       <c r="G16" s="1">
-        <v>5.306321</v>
+        <v>5.3063209999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>912.234000</v>
+        <v>912.23400000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.088000</v>
+        <v>-168.08799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>19112.920285</v>
@@ -4109,844 +4525,844 @@
         <v>5.309145</v>
       </c>
       <c r="M16" s="1">
-        <v>934.918000</v>
+        <v>934.91800000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.127000</v>
+        <v>-119.127</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>19122.780062</v>
+        <v>19122.780062000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.311883</v>
+        <v>5.3118829999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>941.348000</v>
+        <v>941.34799999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.848000</v>
+        <v>-102.848</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>19133.345045</v>
+        <v>19133.345044999998</v>
       </c>
       <c r="V16" s="1">
-        <v>5.314818</v>
+        <v>5.3148179999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>947.687000</v>
+        <v>947.68700000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.905100</v>
+        <v>-87.905100000000004</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>19143.533861</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.317648</v>
+        <v>5.3176480000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>954.592000</v>
+        <v>954.59199999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.525500</v>
+        <v>-76.525499999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>19153.379944</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.320383</v>
+        <v>5.3203829999999996</v>
       </c>
       <c r="AG16" s="1">
-        <v>959.273000</v>
+        <v>959.27300000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.548900</v>
+        <v>-74.548900000000003</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>19163.912026</v>
+        <v>19163.912026000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.323309</v>
+        <v>5.3233090000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>966.430000</v>
+        <v>966.43</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.662000</v>
+        <v>-79.662000000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>19175.049698</v>
+        <v>19175.049697999999</v>
       </c>
       <c r="AP16" s="1">
         <v>5.326403</v>
       </c>
       <c r="AQ16" s="1">
-        <v>974.553000</v>
+        <v>974.553</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.478400</v>
+        <v>-91.478399999999993</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>19186.126318</v>
+        <v>19186.126317999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.329480</v>
+        <v>5.3294800000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>984.568000</v>
+        <v>984.56799999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.419000</v>
+        <v>-109.419</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>19197.186111</v>
+        <v>19197.186110999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.332552</v>
+        <v>5.3325519999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>992.884000</v>
+        <v>992.88400000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.212000</v>
+        <v>-125.212</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>19208.191874</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.335609</v>
+        <v>5.3356089999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1031.830000</v>
+        <v>1031.83</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.700000</v>
+        <v>-197.7</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>19220.133056</v>
+        <v>19220.133055999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.338926</v>
+        <v>5.3389259999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1098.750000</v>
+        <v>1098.75</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.174000</v>
+        <v>-315.17399999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>19231.132338</v>
+        <v>19231.132337999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.341981</v>
+        <v>5.3419809999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-500.700000</v>
+        <v>-500.7</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>19241.795833</v>
       </c>
       <c r="BT16" s="1">
-        <v>5.344943</v>
+        <v>5.3449429999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1328.990000</v>
+        <v>1328.99</v>
       </c>
       <c r="BV16" s="1">
-        <v>-704.606000</v>
+        <v>-704.60599999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>19252.647766</v>
+        <v>19252.647765999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.347958</v>
+        <v>5.3479580000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1466.070000</v>
+        <v>1466.07</v>
       </c>
       <c r="CA16" s="1">
-        <v>-922.702000</v>
+        <v>-922.702</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>19264.986742</v>
+        <v>19264.986742000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.351385</v>
+        <v>5.3513849999999996</v>
       </c>
       <c r="CE16" s="1">
-        <v>1827.660000</v>
+        <v>1827.66</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1440.200000</v>
+        <v>-1440.2</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>19092.693433</v>
       </c>
       <c r="B17" s="1">
-        <v>5.303526</v>
+        <v>5.3035259999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>894.518000</v>
+        <v>894.51800000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.755000</v>
+        <v>-198.755</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>19103.037498</v>
+        <v>19103.037498000002</v>
       </c>
       <c r="G17" s="1">
-        <v>5.306399</v>
+        <v>5.3063989999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>912.012000</v>
+        <v>912.01199999999994</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.134000</v>
+        <v>-168.13399999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>19113.214942</v>
+        <v>19113.214941999999</v>
       </c>
       <c r="L17" s="1">
-        <v>5.309226</v>
+        <v>5.3092259999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>934.632000</v>
+        <v>934.63199999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-118.923000</v>
+        <v>-118.923</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>19123.130928</v>
+        <v>19123.130927999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>5.311981</v>
+        <v>5.3119810000000003</v>
       </c>
       <c r="R17" s="1">
-        <v>941.341000</v>
+        <v>941.34100000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.829000</v>
+        <v>-102.82899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>19133.687810</v>
+        <v>19133.687809999999</v>
       </c>
       <c r="V17" s="1">
-        <v>5.314913</v>
+        <v>5.3149129999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>947.674000</v>
+        <v>947.67399999999998</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.952500</v>
+        <v>-87.952500000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>19143.882054</v>
+        <v>19143.882054000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.317745</v>
+        <v>5.3177450000000004</v>
       </c>
       <c r="AB17" s="1">
-        <v>954.645000</v>
+        <v>954.64499999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.545100</v>
+        <v>-76.545100000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>19154.066407</v>
+        <v>19154.066406999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.320574</v>
+        <v>5.3205739999999997</v>
       </c>
       <c r="AG17" s="1">
-        <v>959.215000</v>
+        <v>959.21500000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.623200</v>
+        <v>-74.623199999999997</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>19164.607882</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.323502</v>
+        <v>5.3235020000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>966.432000</v>
+        <v>966.43200000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.653100</v>
+        <v>-79.653099999999995</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>19175.412763</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.326504</v>
+        <v>5.3265039999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>974.575000</v>
+        <v>974.57500000000005</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.496800</v>
+        <v>-91.496799999999993</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>19186.491023</v>
+        <v>19186.491022999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>5.329581</v>
+        <v>5.3295810000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>984.540000</v>
+        <v>984.54</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.418000</v>
+        <v>-109.41800000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>19197.566541</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.332657</v>
+        <v>5.3326570000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>992.889000</v>
+        <v>992.88900000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.217000</v>
+        <v>-125.217</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>19208.865439</v>
+        <v>19208.865439000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.335796</v>
+        <v>5.3357960000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1031.850000</v>
+        <v>1031.8499999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.674000</v>
+        <v>-197.67400000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>19220.569530</v>
+        <v>19220.569530000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.339047</v>
+        <v>5.3390469999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1098.760000</v>
+        <v>1098.76</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.176000</v>
+        <v>-315.17599999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>19231.273169</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.342020</v>
+        <v>5.3420199999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1207.120000</v>
+        <v>1207.1199999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-500.688000</v>
+        <v>-500.68799999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>19242.205490</v>
+        <v>19242.20549</v>
       </c>
       <c r="BT17" s="1">
-        <v>5.345057</v>
+        <v>5.3450569999999997</v>
       </c>
       <c r="BU17" s="1">
-        <v>1329.040000</v>
+        <v>1329.04</v>
       </c>
       <c r="BV17" s="1">
-        <v>-704.506000</v>
+        <v>-704.50599999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>19253.069364</v>
+        <v>19253.069363999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.348075</v>
+        <v>5.3480749999999997</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1466.070000</v>
+        <v>1466.07</v>
       </c>
       <c r="CA17" s="1">
-        <v>-922.600000</v>
+        <v>-922.6</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>19265.503604</v>
+        <v>19265.503604000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.351529</v>
+        <v>5.3515290000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.090000</v>
+        <v>1827.09</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1440.880000</v>
+        <v>-1440.88</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>19092.972216</v>
+        <v>19092.972215999998</v>
       </c>
       <c r="B18" s="1">
-        <v>5.303603</v>
+        <v>5.3036029999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>894.430000</v>
+        <v>894.43</v>
       </c>
       <c r="D18" s="1">
-        <v>-199.186000</v>
+        <v>-199.18600000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>19103.378747</v>
+        <v>19103.378746999999</v>
       </c>
       <c r="G18" s="1">
-        <v>5.306494</v>
+        <v>5.3064939999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>912.343000</v>
+        <v>912.34299999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.746000</v>
+        <v>-167.74600000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>19113.560125</v>
       </c>
       <c r="L18" s="1">
-        <v>5.309322</v>
+        <v>5.3093219999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>934.638000</v>
+        <v>934.63800000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.151000</v>
+        <v>-119.151</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>19123.476143</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.312077</v>
+        <v>5.3120770000000004</v>
       </c>
       <c r="R18" s="1">
-        <v>941.320000</v>
+        <v>941.32</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.783000</v>
+        <v>-102.783</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>19134.374241</v>
+        <v>19134.374241000001</v>
       </c>
       <c r="V18" s="1">
-        <v>5.315104</v>
+        <v>5.3151039999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>947.716000</v>
+        <v>947.71600000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.935600</v>
+        <v>-87.935599999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>19144.579923</v>
+        <v>19144.579923000001</v>
       </c>
       <c r="AA18" s="1">
         <v>5.317939</v>
       </c>
       <c r="AB18" s="1">
-        <v>954.590000</v>
+        <v>954.59</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.611900</v>
+        <v>-76.611900000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>19154.408674</v>
+        <v>19154.408673999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.320669</v>
+        <v>5.3206689999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>959.285000</v>
+        <v>959.28499999999997</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.589600</v>
+        <v>-74.589600000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>19164.957065</v>
+        <v>19164.957064999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.323599</v>
+        <v>5.3235989999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>966.419000</v>
+        <v>966.41899999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.628600</v>
+        <v>-79.628600000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>19175.771338</v>
+        <v>19175.771337999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>5.326603</v>
+        <v>5.3266030000000004</v>
       </c>
       <c r="AQ18" s="1">
-        <v>974.554000</v>
+        <v>974.55399999999997</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.498900</v>
+        <v>-91.498900000000006</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>19187.163483</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.329768</v>
+        <v>5.3297679999999996</v>
       </c>
       <c r="AV18" s="1">
-        <v>984.549000</v>
+        <v>984.54899999999998</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.440000</v>
+        <v>-109.44</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>19198.228243</v>
+        <v>19198.228243000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.332841</v>
+        <v>5.3328410000000002</v>
       </c>
       <c r="BA18" s="1">
-        <v>992.906000</v>
+        <v>992.90599999999995</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.208000</v>
+        <v>-125.208</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>19209.305642</v>
+        <v>19209.305641999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.335918</v>
+        <v>5.3359180000000004</v>
       </c>
       <c r="BF18" s="1">
-        <v>1031.850000</v>
+        <v>1031.8499999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.674000</v>
+        <v>-197.67400000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>19220.944480</v>
+        <v>19220.944479999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.339151</v>
+        <v>5.3391510000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1098.750000</v>
+        <v>1098.75</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.176000</v>
+        <v>-315.17599999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>19231.685841</v>
+        <v>19231.685840999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.342135</v>
+        <v>5.3421349999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-500.714000</v>
+        <v>-500.714</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>19242.640018</v>
+        <v>19242.640017999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.345178</v>
+        <v>5.3451779999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1329.030000</v>
+        <v>1329.03</v>
       </c>
       <c r="BV18" s="1">
-        <v>-704.593000</v>
+        <v>-704.59299999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>19253.502868</v>
       </c>
       <c r="BY18" s="1">
-        <v>5.348195</v>
+        <v>5.3481949999999996</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1466.080000</v>
+        <v>1466.08</v>
       </c>
       <c r="CA18" s="1">
-        <v>-922.683000</v>
+        <v>-922.68299999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>19266.056649</v>
+        <v>19266.056648999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>5.351682</v>
+        <v>5.3516820000000003</v>
       </c>
       <c r="CE18" s="1">
-        <v>1826.880000</v>
+        <v>1826.88</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1441.080000</v>
+        <v>-1441.08</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>19093.312471</v>
+        <v>19093.312471000001</v>
       </c>
       <c r="B19" s="1">
-        <v>5.303698</v>
+        <v>5.3036979999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>894.736000</v>
+        <v>894.73599999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.807000</v>
+        <v>-198.80699999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>19103.723961</v>
       </c>
       <c r="G19" s="1">
-        <v>5.306590</v>
+        <v>5.3065899999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>912.214000</v>
+        <v>912.21400000000006</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.472000</v>
+        <v>-168.47200000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>19113.905881</v>
+        <v>19113.905880999999</v>
       </c>
       <c r="L19" s="1">
         <v>5.309418</v>
       </c>
       <c r="M19" s="1">
-        <v>934.853000</v>
+        <v>934.85299999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.948000</v>
+        <v>-118.94799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>19124.175008</v>
+        <v>19124.175007999998</v>
       </c>
       <c r="Q19" s="1">
         <v>5.312271</v>
       </c>
       <c r="R19" s="1">
-        <v>941.351000</v>
+        <v>941.351</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.805000</v>
+        <v>-102.80500000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>19134.715984</v>
+        <v>19134.715983999999</v>
       </c>
       <c r="V19" s="1">
-        <v>5.315199</v>
+        <v>5.3151989999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>947.694000</v>
+        <v>947.69399999999996</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.894900</v>
+        <v>-87.894900000000007</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>19144.928611</v>
+        <v>19144.928610999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.318036</v>
+        <v>5.3180360000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>954.542000</v>
+        <v>954.54200000000003</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.635000</v>
+        <v>-76.635000000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>19154.750919</v>
+        <v>19154.750918999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.320764</v>
+        <v>5.3207639999999996</v>
       </c>
       <c r="AG19" s="1">
-        <v>959.150000</v>
+        <v>959.15</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.717200</v>
+        <v>-74.717200000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>19165.305752</v>
@@ -4955,739 +5371,739 @@
         <v>5.323696</v>
       </c>
       <c r="AL19" s="1">
-        <v>966.428000</v>
+        <v>966.428</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.645700</v>
+        <v>-79.645700000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>19176.436474</v>
+        <v>19176.436473999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.326788</v>
+        <v>5.3267879999999996</v>
       </c>
       <c r="AQ19" s="1">
-        <v>974.546000</v>
+        <v>974.54600000000005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.503700</v>
+        <v>-91.503699999999995</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>19187.581616</v>
+        <v>19187.581615999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.329884</v>
+        <v>5.3298839999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>984.540000</v>
+        <v>984.54</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.429000</v>
+        <v>-109.429</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>19198.646828</v>
+        <v>19198.646828000001</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.332957</v>
+        <v>5.3329570000000004</v>
       </c>
       <c r="BA19" s="1">
-        <v>992.897000</v>
+        <v>992.89700000000005</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.226000</v>
+        <v>-125.226</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>19209.663471</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.336018</v>
+        <v>5.3360180000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1031.850000</v>
+        <v>1031.8499999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.694000</v>
+        <v>-197.69399999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>19221.320942</v>
+        <v>19221.320941999998</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.339256</v>
+        <v>5.3392559999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1098.750000</v>
+        <v>1098.75</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.156000</v>
+        <v>-315.15600000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>19232.079664</v>
+        <v>19232.079664000001</v>
       </c>
       <c r="BO19" s="1">
         <v>5.342244</v>
       </c>
       <c r="BP19" s="1">
-        <v>1207.170000</v>
+        <v>1207.17</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-500.704000</v>
+        <v>-500.70400000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>19243.069317</v>
+        <v>19243.069317000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.345297</v>
+        <v>5.3452970000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>1329.010000</v>
+        <v>1329.01</v>
       </c>
       <c r="BV19" s="1">
-        <v>-704.578000</v>
+        <v>-704.57799999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>19253.939876</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.348317</v>
+        <v>5.3483169999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1465.920000</v>
+        <v>1465.92</v>
       </c>
       <c r="CA19" s="1">
-        <v>-922.645000</v>
+        <v>-922.64499999999998</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>19266.585843</v>
+        <v>19266.585843000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.351829</v>
+        <v>5.3518290000000004</v>
       </c>
       <c r="CE19" s="1">
-        <v>1827.870000</v>
+        <v>1827.87</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1440.020000</v>
+        <v>-1440.02</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>19093.656199</v>
+        <v>19093.656199000001</v>
       </c>
       <c r="B20" s="1">
-        <v>5.303793</v>
+        <v>5.3037929999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>894.524000</v>
+        <v>894.524</v>
       </c>
       <c r="D20" s="1">
-        <v>-199.009000</v>
+        <v>-199.00899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>19104.414394</v>
+        <v>19104.414393999999</v>
       </c>
       <c r="G20" s="1">
-        <v>5.306782</v>
+        <v>5.3067820000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>912.226000</v>
+        <v>912.226</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.285000</v>
+        <v>-168.285</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>19114.601227</v>
+        <v>19114.601226999999</v>
       </c>
       <c r="L20" s="1">
-        <v>5.309611</v>
+        <v>5.3096110000000003</v>
       </c>
       <c r="M20" s="1">
-        <v>934.777000</v>
+        <v>934.77700000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-118.984000</v>
+        <v>-118.98399999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>19124.522239</v>
+        <v>19124.522239000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.312367</v>
+        <v>5.3123670000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>941.392000</v>
+        <v>941.39200000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.788000</v>
+        <v>-102.788</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>19135.061200</v>
+        <v>19135.0612</v>
       </c>
       <c r="V20" s="1">
-        <v>5.315295</v>
+        <v>5.3152949999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>947.688000</v>
+        <v>947.68799999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.904600</v>
+        <v>-87.904600000000002</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>19145.274818</v>
+        <v>19145.274818000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.318132</v>
+        <v>5.3181320000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>954.571000</v>
+        <v>954.57100000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.569700</v>
+        <v>-76.569699999999997</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>19155.398694</v>
       </c>
       <c r="AF20" s="1">
-        <v>5.320944</v>
+        <v>5.3209439999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>959.188000</v>
+        <v>959.18799999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.637800</v>
+        <v>-74.637799999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>19165.997708</v>
+        <v>19165.997707999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.323888</v>
+        <v>5.3238880000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>966.431000</v>
+        <v>966.43100000000004</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.653300</v>
+        <v>-79.653300000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>19176.880432</v>
+        <v>19176.880432000002</v>
       </c>
       <c r="AP20" s="1">
         <v>5.326911</v>
       </c>
       <c r="AQ20" s="1">
-        <v>974.559000</v>
+        <v>974.55899999999997</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.513800</v>
+        <v>-91.513800000000003</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>19187.976927</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.329994</v>
+        <v>5.3299940000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>984.566000</v>
+        <v>984.56600000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.431000</v>
+        <v>-109.431</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>19199.023479</v>
+        <v>19199.023478999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>5.333062</v>
       </c>
       <c r="BA20" s="1">
-        <v>992.893000</v>
+        <v>992.89300000000003</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.219000</v>
+        <v>-125.21899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>19210.029549</v>
+        <v>19210.029548999999</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.336119</v>
+        <v>5.3361190000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1031.850000</v>
+        <v>1031.8499999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.716000</v>
+        <v>-197.71600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>19221.743534</v>
+        <v>19221.743534000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.339373</v>
+        <v>5.3393730000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1098.770000</v>
+        <v>1098.77</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.147000</v>
+        <v>-315.14699999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>19232.523089</v>
+        <v>19232.523088999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.342368</v>
+        <v>5.3423679999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1207.150000</v>
+        <v>1207.1500000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-500.723000</v>
+        <v>-500.72300000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>19243.479713</v>
+        <v>19243.479713000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.345411</v>
+        <v>5.3454110000000004</v>
       </c>
       <c r="BU20" s="1">
-        <v>1329.120000</v>
+        <v>1329.12</v>
       </c>
       <c r="BV20" s="1">
-        <v>-704.501000</v>
+        <v>-704.50099999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>19254.349043</v>
+        <v>19254.349042999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.348430</v>
+        <v>5.3484299999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1466.210000</v>
+        <v>1466.21</v>
       </c>
       <c r="CA20" s="1">
-        <v>-922.485000</v>
+        <v>-922.48500000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>19267.105155</v>
+        <v>19267.105155000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.351974</v>
+        <v>5.3519740000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1826.560000</v>
+        <v>1826.56</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1439.460000</v>
+        <v>-1439.46</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>19094.336678</v>
       </c>
       <c r="B21" s="1">
-        <v>5.303982</v>
+        <v>5.3039820000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>894.485000</v>
+        <v>894.48500000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-199.065000</v>
+        <v>-199.065</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>19104.758120</v>
+        <v>19104.758119999999</v>
       </c>
       <c r="G21" s="1">
-        <v>5.306877</v>
+        <v>5.3068770000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>912.263000</v>
+        <v>912.26300000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.088000</v>
+        <v>-168.08799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>19114.945487</v>
+        <v>19114.945487000001</v>
       </c>
       <c r="L21" s="1">
-        <v>5.309707</v>
+        <v>5.3097070000000004</v>
       </c>
       <c r="M21" s="1">
-        <v>934.593000</v>
+        <v>934.59299999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>-118.971000</v>
+        <v>-118.971</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>19124.870893</v>
+        <v>19124.870892999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>5.312464</v>
+        <v>5.3124640000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>941.363000</v>
+        <v>941.36300000000006</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.810000</v>
+        <v>-102.81</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>19135.701039</v>
       </c>
       <c r="V21" s="1">
-        <v>5.315473</v>
+        <v>5.3154729999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>947.621000</v>
+        <v>947.62099999999998</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.913900</v>
+        <v>-87.913899999999998</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>19145.932050</v>
+        <v>19145.932049999999</v>
       </c>
       <c r="AA21" s="1">
         <v>5.318314</v>
       </c>
       <c r="AB21" s="1">
-        <v>954.653000</v>
+        <v>954.65300000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.613600</v>
+        <v>-76.613600000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>19155.793477</v>
+        <v>19155.793476999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.321054</v>
+        <v>5.3210540000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>959.083000</v>
+        <v>959.08299999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.642700</v>
+        <v>-74.642700000000005</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>19166.349863</v>
+        <v>19166.349862999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.323986</v>
+        <v>5.3239859999999997</v>
       </c>
       <c r="AL21" s="1">
-        <v>966.407000</v>
+        <v>966.40700000000004</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.651800</v>
+        <v>-79.651799999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>19177.242505</v>
+        <v>19177.242504999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.327012</v>
+        <v>5.3270119999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>974.569000</v>
+        <v>974.56899999999996</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.492300</v>
+        <v>-91.4923</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>19188.343930</v>
+        <v>19188.343929999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.330096</v>
+        <v>5.3300960000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>984.545000</v>
+        <v>984.54499999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.440000</v>
+        <v>-109.44</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>19199.402243</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.333167</v>
+        <v>5.3331670000000004</v>
       </c>
       <c r="BA21" s="1">
-        <v>992.880000</v>
+        <v>992.88</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.236000</v>
+        <v>-125.236</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>19210.460542</v>
+        <v>19210.460542000001</v>
       </c>
       <c r="BE21" s="1">
         <v>5.336239</v>
       </c>
       <c r="BF21" s="1">
-        <v>1031.840000</v>
+        <v>1031.8399999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.685000</v>
+        <v>-197.685</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>19222.097677</v>
+        <v>19222.097677000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.339472</v>
+        <v>5.3394719999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1098.760000</v>
+        <v>1098.76</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.126000</v>
+        <v>-315.12599999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>19232.897071</v>
+        <v>19232.897070999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.342471</v>
+        <v>5.3424709999999997</v>
       </c>
       <c r="BP21" s="1">
-        <v>1207.140000</v>
+        <v>1207.1400000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-500.725000</v>
+        <v>-500.72500000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>19243.913248</v>
+        <v>19243.913248000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.345531</v>
+        <v>5.3455310000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>1329.100000</v>
+        <v>1329.1</v>
       </c>
       <c r="BV21" s="1">
-        <v>-704.511000</v>
+        <v>-704.51099999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>19254.782082</v>
+        <v>19254.782082000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>5.348551</v>
+        <v>5.3485509999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1466.060000</v>
+        <v>1466.06</v>
       </c>
       <c r="CA21" s="1">
-        <v>-922.618000</v>
+        <v>-922.61800000000005</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>19267.961280</v>
+        <v>19267.96128</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.352211</v>
+        <v>5.3522109999999996</v>
       </c>
       <c r="CE21" s="1">
-        <v>1826.080000</v>
+        <v>1826.08</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1440.690000</v>
+        <v>-1440.69</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>19094.678423</v>
+        <v>19094.678423000001</v>
       </c>
       <c r="B22" s="1">
-        <v>5.304077</v>
+        <v>5.3040770000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>894.780000</v>
+        <v>894.78</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.956000</v>
+        <v>-198.95599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>19105.101353</v>
+        <v>19105.101352999998</v>
       </c>
       <c r="G22" s="1">
-        <v>5.306973</v>
+        <v>5.3069730000000002</v>
       </c>
       <c r="H22" s="1">
-        <v>912.477000</v>
+        <v>912.47699999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.791000</v>
+        <v>-167.791</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>19115.333826</v>
+        <v>19115.333825999998</v>
       </c>
       <c r="L22" s="1">
-        <v>5.309815</v>
+        <v>5.3098150000000004</v>
       </c>
       <c r="M22" s="1">
-        <v>934.886000</v>
+        <v>934.88599999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-118.913000</v>
+        <v>-118.913</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>19125.521646</v>
+        <v>19125.521646000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.312645</v>
+        <v>5.3126449999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>941.330000</v>
+        <v>941.33</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.822000</v>
+        <v>-102.822</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>19136.090896</v>
+        <v>19136.090896000002</v>
       </c>
       <c r="V22" s="1">
-        <v>5.315581</v>
+        <v>5.3155809999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>947.713000</v>
+        <v>947.71299999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.956200</v>
+        <v>-87.956199999999995</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>19146.320882</v>
@@ -5696,210 +6112,210 @@
         <v>5.318422</v>
       </c>
       <c r="AB22" s="1">
-        <v>954.589000</v>
+        <v>954.58900000000006</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.723000</v>
+        <v>-76.722999999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>19156.127813</v>
+        <v>19156.127812999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>5.321147</v>
+        <v>5.3211469999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>959.268000</v>
+        <v>959.26800000000003</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.621300</v>
+        <v>-74.621300000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>19166.699510</v>
+        <v>19166.699509999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.324083</v>
+        <v>5.3240829999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>966.426000</v>
+        <v>966.42600000000004</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.677900</v>
+        <v>-79.677899999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>19177.601577</v>
+        <v>19177.601577000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.327112</v>
+        <v>5.3271119999999996</v>
       </c>
       <c r="AQ22" s="1">
-        <v>974.569000</v>
+        <v>974.56899999999996</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.487500</v>
+        <v>-91.487499999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>19188.763050</v>
+        <v>19188.763050000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.330212</v>
+        <v>5.3302120000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>984.543000</v>
+        <v>984.54300000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.439000</v>
+        <v>-109.43899999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>19199.891787</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.333303</v>
+        <v>5.3333029999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>992.877000</v>
+        <v>992.87699999999995</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.229000</v>
+        <v>-125.229</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>19210.751694</v>
+        <v>19210.751693999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.336320</v>
+        <v>5.3363199999999997</v>
       </c>
       <c r="BF22" s="1">
-        <v>1031.870000</v>
+        <v>1031.8699999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.696000</v>
+        <v>-197.696</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>19222.475132</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.339576</v>
+        <v>5.3395760000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1098.730000</v>
+        <v>1098.73</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.153000</v>
+        <v>-315.15300000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>19233.318174</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.342588</v>
+        <v>5.3425880000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1207.180000</v>
+        <v>1207.18</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-500.687000</v>
+        <v>-500.68700000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>19244.337791</v>
+        <v>19244.337791000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.345649</v>
+        <v>5.3456489999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1329.110000</v>
+        <v>1329.11</v>
       </c>
       <c r="BV22" s="1">
-        <v>-704.524000</v>
+        <v>-704.524</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>19255.207617</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.348669</v>
+        <v>5.3486690000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1466.030000</v>
+        <v>1466.03</v>
       </c>
       <c r="CA22" s="1">
-        <v>-922.671000</v>
+        <v>-922.67100000000005</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>19268.147746</v>
+        <v>19268.147745999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.352263</v>
+        <v>5.3522629999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1825.630000</v>
+        <v>1825.63</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1440.260000</v>
+        <v>-1440.26</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>19095.022682</v>
+        <v>19095.022681999999</v>
       </c>
       <c r="B23" s="1">
-        <v>5.304173</v>
+        <v>5.3041729999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>894.671000</v>
+        <v>894.67100000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.181000</v>
+        <v>-199.18100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>19105.751112</v>
+        <v>19105.751112000002</v>
       </c>
       <c r="G23" s="1">
-        <v>5.307153</v>
+        <v>5.3071529999999996</v>
       </c>
       <c r="H23" s="1">
-        <v>912.046000</v>
+        <v>912.04600000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.067000</v>
+        <v>-168.06700000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>19115.780777</v>
@@ -5908,934 +6324,934 @@
         <v>5.309939</v>
       </c>
       <c r="M23" s="1">
-        <v>934.942000</v>
+        <v>934.94200000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.869000</v>
+        <v>-118.869</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>19125.928364</v>
+        <v>19125.928363999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.312758</v>
+        <v>5.3127579999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>941.307000</v>
+        <v>941.30700000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.792000</v>
+        <v>-102.792</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>19136.435615</v>
+        <v>19136.435614999999</v>
       </c>
       <c r="V23" s="1">
         <v>5.315677</v>
       </c>
       <c r="W23" s="1">
-        <v>947.689000</v>
+        <v>947.68899999999996</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.942700</v>
+        <v>-87.942700000000002</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>19146.671584</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.318520</v>
+        <v>5.3185200000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>954.570000</v>
+        <v>954.57</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.561400</v>
+        <v>-76.561400000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>19156.470517</v>
+        <v>19156.470517000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.321242</v>
+        <v>5.3212419999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>959.274000</v>
+        <v>959.274</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.778200</v>
+        <v>-74.778199999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>19167.124085</v>
+        <v>19167.124084999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.324201</v>
+        <v>5.3242010000000004</v>
       </c>
       <c r="AL23" s="1">
-        <v>966.439000</v>
+        <v>966.43899999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.649400</v>
+        <v>-79.6494</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>19178.017225</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.327227</v>
+        <v>5.3272269999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>974.592000</v>
+        <v>974.59199999999998</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.504500</v>
+        <v>-91.504499999999993</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>19189.071561</v>
+        <v>19189.071561000001</v>
       </c>
       <c r="AU23" s="1">
         <v>5.330298</v>
       </c>
       <c r="AV23" s="1">
-        <v>984.550000</v>
+        <v>984.55</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.421000</v>
+        <v>-109.42100000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>19200.133339</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.333370</v>
+        <v>5.3333700000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>992.888000</v>
+        <v>992.88800000000003</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.209000</v>
+        <v>-125.209</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>19211.112780</v>
+        <v>19211.112779999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.336420</v>
+        <v>5.3364200000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1031.860000</v>
+        <v>1031.8599999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.675000</v>
+        <v>-197.67500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>19222.852092</v>
+        <v>19222.852092000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.339681</v>
+        <v>5.3396809999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1098.750000</v>
+        <v>1098.75</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.158000</v>
+        <v>-315.15800000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>19234.055266</v>
+        <v>19234.055265999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.342793</v>
+        <v>5.3427930000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1207.190000</v>
+        <v>1207.19</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-500.687000</v>
+        <v>-500.68700000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>19244.752449</v>
       </c>
       <c r="BT23" s="1">
-        <v>5.345765</v>
+        <v>5.3457650000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1329.080000</v>
+        <v>1329.08</v>
       </c>
       <c r="BV23" s="1">
-        <v>-704.513000</v>
+        <v>-704.51300000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>19255.625746</v>
+        <v>19255.625746000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.348785</v>
+        <v>5.3487850000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1466.200000</v>
+        <v>1466.2</v>
       </c>
       <c r="CA23" s="1">
-        <v>-922.641000</v>
+        <v>-922.64099999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>19268.675488</v>
+        <v>19268.675488000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.352410</v>
+        <v>5.3524099999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1826.140000</v>
+        <v>1826.14</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1439.600000</v>
+        <v>-1439.6</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>19095.665705</v>
+        <v>19095.665704999999</v>
       </c>
       <c r="B24" s="1">
-        <v>5.304352</v>
+        <v>5.3043519999999997</v>
       </c>
       <c r="C24" s="1">
-        <v>894.634000</v>
+        <v>894.63400000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-199.005000</v>
+        <v>-199.005</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>19106.137526</v>
+        <v>19106.137525999999</v>
       </c>
       <c r="G24" s="1">
-        <v>5.307260</v>
+        <v>5.3072600000000003</v>
       </c>
       <c r="H24" s="1">
-        <v>912.343000</v>
+        <v>912.34299999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.239000</v>
+        <v>-168.239</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>19116.019786</v>
+        <v>19116.019786000001</v>
       </c>
       <c r="L24" s="1">
-        <v>5.310005</v>
+        <v>5.3100050000000003</v>
       </c>
       <c r="M24" s="1">
-        <v>934.756000</v>
+        <v>934.75599999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.050000</v>
+        <v>-119.05</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>19126.264652</v>
+        <v>19126.264652000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.312851</v>
+        <v>5.3128510000000002</v>
       </c>
       <c r="R24" s="1">
-        <v>941.313000</v>
+        <v>941.31299999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.800000</v>
+        <v>-102.8</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>19136.778847</v>
+        <v>19136.778847000001</v>
       </c>
       <c r="V24" s="1">
-        <v>5.315772</v>
+        <v>5.3157719999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>947.649000</v>
+        <v>947.649</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.898100</v>
+        <v>-87.898099999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>19147.019248</v>
+        <v>19147.019248000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.318616</v>
+        <v>5.3186159999999996</v>
       </c>
       <c r="AB24" s="1">
-        <v>954.563000</v>
+        <v>954.56299999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.599100</v>
+        <v>-76.599100000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>19156.902532</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.321362</v>
+        <v>5.3213619999999997</v>
       </c>
       <c r="AG24" s="1">
-        <v>959.205000</v>
+        <v>959.20500000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.513900</v>
+        <v>-74.513900000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>19167.396918</v>
+        <v>19167.396917999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.324277</v>
+        <v>5.3242770000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>966.408000</v>
+        <v>966.40800000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.662800</v>
+        <v>-79.662800000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>19178.322263</v>
+        <v>19178.322262999998</v>
       </c>
       <c r="AP24" s="1">
         <v>5.327312</v>
       </c>
       <c r="AQ24" s="1">
-        <v>974.573000</v>
+        <v>974.57299999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.502400</v>
+        <v>-91.502399999999994</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>19189.435128</v>
+        <v>19189.435128000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>5.330399</v>
+        <v>5.3303989999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>984.539000</v>
+        <v>984.53899999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.431000</v>
+        <v>-109.431</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>19200.478059</v>
+        <v>19200.478059000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.333466</v>
+        <v>5.3334659999999996</v>
       </c>
       <c r="BA24" s="1">
-        <v>992.895000</v>
+        <v>992.89499999999998</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.235000</v>
+        <v>-125.235</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>19211.470891</v>
+        <v>19211.470891000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.336520</v>
+        <v>5.3365200000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1031.880000</v>
+        <v>1031.8800000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.699000</v>
+        <v>-197.69900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>19223.602577</v>
+        <v>19223.602577000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.339890</v>
+        <v>5.3398899999999996</v>
       </c>
       <c r="BK24" s="1">
-        <v>1098.760000</v>
+        <v>1098.76</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.162000</v>
+        <v>-315.16199999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>19234.556189</v>
+        <v>19234.556188999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.342932</v>
+        <v>5.3429320000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1207.150000</v>
+        <v>1207.1500000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-500.690000</v>
+        <v>-500.69</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>19245.183967</v>
+        <v>19245.183967000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.345884</v>
+        <v>5.3458839999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1329.090000</v>
+        <v>1329.09</v>
       </c>
       <c r="BV24" s="1">
-        <v>-704.512000</v>
+        <v>-704.51199999999994</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>19256.070193</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.348908</v>
+        <v>5.3489079999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1466.110000</v>
+        <v>1466.11</v>
       </c>
       <c r="CA24" s="1">
-        <v>-922.660000</v>
+        <v>-922.66</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>19269.504800</v>
+        <v>19269.504799999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.352640</v>
+        <v>5.3526400000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1825.890000</v>
+        <v>1825.89</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1440.920000</v>
+        <v>-1440.92</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>19096.046884</v>
+        <v>19096.046883999999</v>
       </c>
       <c r="B25" s="1">
-        <v>5.304457</v>
+        <v>5.3044570000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>894.624000</v>
+        <v>894.62400000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-199.012000</v>
+        <v>-199.012</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>19106.481517</v>
       </c>
       <c r="G25" s="1">
-        <v>5.307356</v>
+        <v>5.3073560000000004</v>
       </c>
       <c r="H25" s="1">
-        <v>911.803000</v>
+        <v>911.803</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.166000</v>
+        <v>-168.166</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>19116.366520</v>
+        <v>19116.36652</v>
       </c>
       <c r="L25" s="1">
-        <v>5.310102</v>
+        <v>5.3101019999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>934.735000</v>
+        <v>934.73500000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.140000</v>
+        <v>-119.14</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>19126.613867</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.312948</v>
+        <v>5.3129479999999996</v>
       </c>
       <c r="R25" s="1">
-        <v>941.357000</v>
+        <v>941.35699999999997</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.783000</v>
+        <v>-102.783</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>19137.195008</v>
+        <v>19137.195007999999</v>
       </c>
       <c r="V25" s="1">
-        <v>5.315888</v>
+        <v>5.3158880000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>947.681000</v>
+        <v>947.68100000000004</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.915100</v>
+        <v>-87.915099999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>19147.437911</v>
+        <v>19147.437911000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.318733</v>
+        <v>5.3187329999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>954.644000</v>
+        <v>954.64400000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.593300</v>
+        <v>-76.593299999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>19157.179795</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.321439</v>
+        <v>5.3214389999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>959.227000</v>
+        <v>959.22699999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.695100</v>
+        <v>-74.695099999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>19167.746069</v>
+        <v>19167.746069000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.324374</v>
+        <v>5.3243739999999997</v>
       </c>
       <c r="AL25" s="1">
-        <v>966.414000</v>
+        <v>966.41399999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.643100</v>
+        <v>-79.643100000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>19178.680375</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.327411</v>
+        <v>5.3274109999999997</v>
       </c>
       <c r="AQ25" s="1">
-        <v>974.569000</v>
+        <v>974.56899999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.506000</v>
+        <v>-91.506</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>19189.799725</v>
+        <v>19189.799725000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.330500</v>
+        <v>5.3304999999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>984.548000</v>
+        <v>984.548</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.426000</v>
+        <v>-109.426</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>19201.195770</v>
+        <v>19201.195769999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.333665</v>
+        <v>5.3336649999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>992.893000</v>
+        <v>992.89300000000003</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.204000</v>
+        <v>-125.20399999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>19212.195547</v>
+        <v>19212.195546999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.336721</v>
+        <v>5.3367209999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1031.850000</v>
+        <v>1031.8499999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.696000</v>
+        <v>-197.696</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>19223.975562</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.339993</v>
+        <v>5.3399929999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1098.770000</v>
+        <v>1098.77</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.168000</v>
+        <v>-315.16800000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>19234.976798</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.343049</v>
+        <v>5.3430489999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1207.170000</v>
+        <v>1207.17</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-500.722000</v>
+        <v>-500.72199999999998</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>19245.610032</v>
+        <v>19245.610032000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.346003</v>
+        <v>5.3460029999999996</v>
       </c>
       <c r="BU25" s="1">
-        <v>1329.110000</v>
+        <v>1329.11</v>
       </c>
       <c r="BV25" s="1">
-        <v>-704.559000</v>
+        <v>-704.55899999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>19256.812672</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.349115</v>
+        <v>5.3491150000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1465.910000</v>
+        <v>1465.91</v>
       </c>
       <c r="CA25" s="1">
-        <v>-922.568000</v>
+        <v>-922.56799999999998</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>19269.746350</v>
+        <v>19269.746350000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.352707</v>
+        <v>5.3527069999999997</v>
       </c>
       <c r="CE25" s="1">
-        <v>1827.340000</v>
+        <v>1827.34</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1440.470000</v>
+        <v>-1440.47</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>19096.391107</v>
+        <v>19096.391106999999</v>
       </c>
       <c r="B26" s="1">
-        <v>5.304553</v>
+        <v>5.3045530000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>894.630000</v>
+        <v>894.63</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.865000</v>
+        <v>-198.86500000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>19106.825978</v>
+        <v>19106.825978000001</v>
       </c>
       <c r="G26" s="1">
-        <v>5.307452</v>
+        <v>5.3074519999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>912.013000</v>
+        <v>912.01300000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.142000</v>
+        <v>-168.142</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>19116.792056</v>
+        <v>19116.792055999998</v>
       </c>
       <c r="L26" s="1">
-        <v>5.310220</v>
+        <v>5.3102200000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>934.877000</v>
+        <v>934.87699999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.814000</v>
+        <v>-118.81399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>19127.027003</v>
+        <v>19127.027002999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.313063</v>
+        <v>5.3130629999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>941.362000</v>
+        <v>941.36199999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.821000</v>
+        <v>-102.821</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>19137.492589</v>
+        <v>19137.492589000001</v>
       </c>
       <c r="V26" s="1">
-        <v>5.315970</v>
+        <v>5.3159700000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>947.670000</v>
+        <v>947.67</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.874400</v>
+        <v>-87.874399999999994</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>19147.728031</v>
+        <v>19147.728030999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.318813</v>
+        <v>5.3188129999999996</v>
       </c>
       <c r="AB26" s="1">
-        <v>954.617000</v>
+        <v>954.61699999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.674200</v>
+        <v>-76.674199999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>19157.524019</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.321534</v>
+        <v>5.3215339999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>959.083000</v>
+        <v>959.08299999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.703600</v>
+        <v>-74.703599999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>19168.096277</v>
+        <v>19168.096277000001</v>
       </c>
       <c r="AK26" s="1">
         <v>5.324471</v>
       </c>
       <c r="AL26" s="1">
-        <v>966.424000</v>
+        <v>966.42399999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.649700</v>
+        <v>-79.649699999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>19179.044438</v>
+        <v>19179.044438000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.327512</v>
+        <v>5.3275119999999996</v>
       </c>
       <c r="AQ26" s="1">
-        <v>974.562000</v>
+        <v>974.56200000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.497000</v>
+        <v>-91.497</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>19190.533290</v>
+        <v>19190.533289999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.330704</v>
+        <v>5.3307039999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>984.519000</v>
+        <v>984.51900000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.447000</v>
+        <v>-109.447</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>19201.560328</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.333767</v>
+        <v>5.3337669999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>992.892000</v>
+        <v>992.89200000000005</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.228000</v>
+        <v>-125.22799999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>19212.553194</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.336820</v>
+        <v>5.3368200000000003</v>
       </c>
       <c r="BF26" s="1">
-        <v>1031.850000</v>
+        <v>1031.8499999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.709000</v>
+        <v>-197.709</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>19224.352026</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.340098</v>
+        <v>5.3400980000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1098.780000</v>
+        <v>1098.78</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.150000</v>
+        <v>-315.14999999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>19235.671691</v>
@@ -6844,60 +7260,61 @@
         <v>5.343242</v>
       </c>
       <c r="BP26" s="1">
-        <v>1207.180000</v>
+        <v>1207.18</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-500.717000</v>
+        <v>-500.71699999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>19246.316333</v>
+        <v>19246.316332999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.346199</v>
+        <v>5.3461990000000004</v>
       </c>
       <c r="BU26" s="1">
-        <v>1329.140000</v>
+        <v>1329.14</v>
       </c>
       <c r="BV26" s="1">
-        <v>-704.542000</v>
+        <v>-704.54200000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>19256.922288</v>
+        <v>19256.922288000002</v>
       </c>
       <c r="BY26" s="1">
         <v>5.349145</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1466.030000</v>
+        <v>1466.03</v>
       </c>
       <c r="CA26" s="1">
-        <v>-922.648000</v>
+        <v>-922.64800000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>19270.281070</v>
+        <v>19270.281070000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.352856</v>
+        <v>5.3528560000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1825.870000</v>
+        <v>1825.87</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1439.630000</v>
+        <v>-1439.63</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>